--- a/BalanceSheet/PAYX_bal.xlsx
+++ b/BalanceSheet/PAYX_bal.xlsx
@@ -1697,19 +1697,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>142800000.0</v>
+        <v>74000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>40800000.0</v>
+        <v>70000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-55600000.0</v>
+        <v>62000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>21600000.0</v>
+        <v>79000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-12000000.0</v>
+        <v>68000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>76300000.0</v>
@@ -3058,19 +3058,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>100000.0</v>
+        <v>233000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-5200000.0</v>
+        <v>240000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-1500000.0</v>
+        <v>244000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>3700000.0</v>
+        <v>241000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-5000000.0</v>
+        <v>233000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>226800000.0</v>
